--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.87363029965532</v>
+        <v>110.288204012787</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.651507089532</v>
+        <v>150.9011863023969</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.6096790445384</v>
+        <v>136.4993888728825</v>
       </c>
       <c r="AD2" t="n">
-        <v>99873.63029965531</v>
+        <v>110288.204012787</v>
       </c>
       <c r="AE2" t="n">
-        <v>136651.507089532</v>
+        <v>150901.1863023969</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.256545442423822e-06</v>
+        <v>1.057700049643423e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.238888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>123609.6790445384</v>
+        <v>136499.3888728825</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.97798986713316</v>
+        <v>52.39247407171729</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.43613767424016</v>
+        <v>71.68569441772499</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.95451330685007</v>
+        <v>64.84411235401727</v>
       </c>
       <c r="AD3" t="n">
-        <v>41977.98986713316</v>
+        <v>52392.47407171729</v>
       </c>
       <c r="AE3" t="n">
-        <v>57436.13767424016</v>
+        <v>71685.69441772498</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.075474588012513e-05</v>
+        <v>1.818143151998572e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51954.51330685007</v>
+        <v>64844.11235401726</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>36.25809703438578</v>
+        <v>46.67258123896901</v>
       </c>
       <c r="AB4" t="n">
-        <v>49.60992795665082</v>
+        <v>63.85948470010047</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.87522606052984</v>
+        <v>57.76482510768601</v>
       </c>
       <c r="AD4" t="n">
-        <v>36258.09703438578</v>
+        <v>46672.58123896901</v>
       </c>
       <c r="AE4" t="n">
-        <v>49609.92795665082</v>
+        <v>63859.48470010047</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252198983492547e-05</v>
+        <v>2.116904510950712e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.618055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>44875.22606052984</v>
+        <v>57764.82510768602</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.57338393258783</v>
+        <v>44.9878681371708</v>
       </c>
       <c r="AB5" t="n">
-        <v>47.30482916648552</v>
+        <v>61.55438590992481</v>
       </c>
       <c r="AC5" t="n">
-        <v>42.79012266366459</v>
+        <v>55.67972171081751</v>
       </c>
       <c r="AD5" t="n">
-        <v>34573.38393258783</v>
+        <v>44987.8681371708</v>
       </c>
       <c r="AE5" t="n">
-        <v>47304.82916648552</v>
+        <v>61554.38590992481</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.303156414020181e-05</v>
+        <v>2.203050575571797e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.554166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>42790.12266366459</v>
+        <v>55679.72171081751</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>34.53656760780157</v>
+        <v>44.95105181238454</v>
       </c>
       <c r="AB6" t="n">
-        <v>47.25445544669159</v>
+        <v>61.50401219013066</v>
       </c>
       <c r="AC6" t="n">
-        <v>42.74455654098767</v>
+        <v>55.63415558814054</v>
       </c>
       <c r="AD6" t="n">
-        <v>34536.56760780157</v>
+        <v>44951.05181238454</v>
       </c>
       <c r="AE6" t="n">
-        <v>47254.45544669159</v>
+        <v>61504.01219013066</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.305971983471035e-05</v>
+        <v>2.207810435426326e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.551388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>42744.55654098767</v>
+        <v>55634.15558814054</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.14520650279512</v>
+        <v>75.32111520122673</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.13454554076466</v>
+        <v>103.0576727513598</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.62766961549595</v>
+        <v>93.22199310634807</v>
       </c>
       <c r="AD2" t="n">
-        <v>65145.20650279512</v>
+        <v>75321.11520122673</v>
       </c>
       <c r="AE2" t="n">
-        <v>89134.54554076467</v>
+        <v>103057.6727513598</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.159241058331202e-06</v>
+        <v>1.413010029270482e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.569444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>80627.66961549595</v>
+        <v>93221.99310634806</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.84694855458214</v>
+        <v>46.93751639844479</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.41562058487521</v>
+        <v>64.22198067340936</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.6040245151156</v>
+        <v>58.09272497406871</v>
       </c>
       <c r="AD3" t="n">
-        <v>36846.94855458214</v>
+        <v>46937.51639844479</v>
       </c>
       <c r="AE3" t="n">
-        <v>50415.62058487521</v>
+        <v>64221.98067340936</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20163368313605e-05</v>
+        <v>2.080978406743801e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.744444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>45604.0245151156</v>
+        <v>58092.72497406871</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.82111469741273</v>
+        <v>42.91168254127474</v>
       </c>
       <c r="AB4" t="n">
-        <v>44.90729709426778</v>
+        <v>58.71365718277718</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.62140768745479</v>
+        <v>53.11010814640014</v>
       </c>
       <c r="AD4" t="n">
-        <v>32821.11469741273</v>
+        <v>42911.68254127474</v>
       </c>
       <c r="AE4" t="n">
-        <v>44907.29709426779</v>
+        <v>58713.65718277718</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.351251209913624e-05</v>
+        <v>2.340084694179065e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.551388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>40621.40768745479</v>
+        <v>53110.10814640015</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>32.80747653984479</v>
+        <v>42.8980443837068</v>
       </c>
       <c r="AB5" t="n">
-        <v>44.88863676541038</v>
+        <v>58.69499685391968</v>
       </c>
       <c r="AC5" t="n">
-        <v>40.60452827419353</v>
+        <v>53.09322873313887</v>
       </c>
       <c r="AD5" t="n">
-        <v>32807.47653984479</v>
+        <v>42898.0443837068</v>
       </c>
       <c r="AE5" t="n">
-        <v>44888.63676541038</v>
+        <v>58694.99685391969</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352262343088336e-05</v>
+        <v>2.341835765518399e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>40604.52827419354</v>
+        <v>53093.22873313887</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.6523102983923</v>
+        <v>37.76767591110612</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.2033550008856</v>
+        <v>51.67540037368939</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.461841821915</v>
+        <v>46.74357268900115</v>
       </c>
       <c r="AD2" t="n">
-        <v>28652.31029839231</v>
+        <v>37767.67591110612</v>
       </c>
       <c r="AE2" t="n">
-        <v>39203.3550008856</v>
+        <v>51675.40037368939</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.432541721685766e-05</v>
+        <v>2.710677205680797e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>35461.841821915</v>
+        <v>46743.57268900115</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.5186161222503</v>
+        <v>37.63398173496411</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.02042873091821</v>
+        <v>51.49247410372201</v>
       </c>
       <c r="AC3" t="n">
-        <v>35.29637377841413</v>
+        <v>46.57810464550027</v>
       </c>
       <c r="AD3" t="n">
-        <v>28518.6161222503</v>
+        <v>37633.98173496411</v>
       </c>
       <c r="AE3" t="n">
-        <v>39020.42873091821</v>
+        <v>51492.47410372201</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.447141967050669e-05</v>
+        <v>2.738304011733899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>35296.37377841413</v>
+        <v>46578.10464550027</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.10792503399945</v>
+        <v>44.60455581297414</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.03621188372239</v>
+        <v>61.02992107741294</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.45170324087264</v>
+        <v>55.20531106582941</v>
       </c>
       <c r="AD2" t="n">
-        <v>35107.92503399945</v>
+        <v>44604.55581297414</v>
       </c>
       <c r="AE2" t="n">
-        <v>48036.2118837224</v>
+        <v>61029.92107741295</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.190145118379402e-05</v>
+        <v>2.16818593618293e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.880555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>43451.70324087264</v>
+        <v>55205.3110658294</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>30.10686214682225</v>
+        <v>39.60349292579309</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.19353701019645</v>
+        <v>54.18724620370263</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.26208365350115</v>
+        <v>49.01569147840316</v>
       </c>
       <c r="AD3" t="n">
-        <v>30106.86214682225</v>
+        <v>39603.49292579309</v>
       </c>
       <c r="AE3" t="n">
-        <v>41193.53701019645</v>
+        <v>54187.24620370263</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415898127433217e-05</v>
+        <v>2.579458890818888e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.580555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>37262.08365350115</v>
+        <v>49015.69147840315</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.05844323507108</v>
+        <v>36.86109320213691</v>
       </c>
       <c r="AB2" t="n">
-        <v>38.39079988528768</v>
+        <v>50.43497391567735</v>
       </c>
       <c r="AC2" t="n">
-        <v>34.72683582611906</v>
+        <v>45.62153079118861</v>
       </c>
       <c r="AD2" t="n">
-        <v>28058.44323507108</v>
+        <v>36861.09320213691</v>
       </c>
       <c r="AE2" t="n">
-        <v>38390.79988528768</v>
+        <v>50434.97391567735</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387826412238044e-05</v>
+        <v>2.7196926096675e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>34726.83582611907</v>
+        <v>45621.53079118861</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.88083650300509</v>
+        <v>90.14690862846537</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.61404342829941</v>
+        <v>123.3429773863417</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.48877331867885</v>
+        <v>111.5712967375777</v>
       </c>
       <c r="AD2" t="n">
-        <v>69880.83650300509</v>
+        <v>90146.90862846537</v>
       </c>
       <c r="AE2" t="n">
-        <v>95614.04342829941</v>
+        <v>123342.9773863417</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.664637402175376e-06</v>
+        <v>1.318686461112949e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.709722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>86488.77331867885</v>
+        <v>111571.2967375776</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.7846943837566</v>
+        <v>48.96040087377549</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.06692991565146</v>
+        <v>66.98978045592003</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.00229660450647</v>
+        <v>60.59636982996884</v>
       </c>
       <c r="AD3" t="n">
-        <v>38784.6943837566</v>
+        <v>48960.40087377549</v>
       </c>
       <c r="AE3" t="n">
-        <v>53066.92991565146</v>
+        <v>66989.78045592003</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.147706465824103e-05</v>
+        <v>1.9746074059348e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.809722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>48002.29660450647</v>
+        <v>60596.36982996883</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>33.91236596293584</v>
+        <v>44.08807245295397</v>
       </c>
       <c r="AB4" t="n">
-        <v>46.40039521835737</v>
+        <v>60.32324575859598</v>
       </c>
       <c r="AC4" t="n">
-        <v>41.97200662216208</v>
+        <v>54.56607984761506</v>
       </c>
       <c r="AD4" t="n">
-        <v>33912.36596293584</v>
+        <v>44088.07245295397</v>
       </c>
       <c r="AE4" t="n">
-        <v>46400.39521835737</v>
+        <v>60323.24575859598</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.3127007676911e-05</v>
+        <v>2.258477001606789e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.581944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>41972.00662216208</v>
+        <v>54566.07984761507</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>33.18172490989033</v>
+        <v>43.35743139990834</v>
       </c>
       <c r="AB5" t="n">
-        <v>45.40069989597701</v>
+        <v>59.32355043621112</v>
       </c>
       <c r="AC5" t="n">
-        <v>41.06772081826552</v>
+        <v>53.66179404371711</v>
       </c>
       <c r="AD5" t="n">
-        <v>33181.72490989033</v>
+        <v>43357.43139990834</v>
       </c>
       <c r="AE5" t="n">
-        <v>45400.69989597701</v>
+        <v>59323.55043621112</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.34014497943203e-05</v>
+        <v>2.305694252155927e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>41067.72081826552</v>
+        <v>53661.79404371711</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>27.95639445923713</v>
+        <v>36.57386994215695</v>
       </c>
       <c r="AB2" t="n">
-        <v>38.25117224811809</v>
+        <v>50.04198237997874</v>
       </c>
       <c r="AC2" t="n">
-        <v>34.60053405467191</v>
+        <v>45.26604581608882</v>
       </c>
       <c r="AD2" t="n">
-        <v>27956.39445923713</v>
+        <v>36573.86994215695</v>
       </c>
       <c r="AE2" t="n">
-        <v>38251.17224811809</v>
+        <v>50041.98237997874</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336886460832604e-05</v>
+        <v>2.680003316052326e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.859722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>34600.53405467191</v>
+        <v>45266.04581608882</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.43040144187575</v>
+        <v>63.15940184016998</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.10583243569893</v>
+        <v>86.41747999384364</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.12871439273246</v>
+        <v>78.16991699094677</v>
       </c>
       <c r="AD2" t="n">
-        <v>53430.40144187575</v>
+        <v>63159.40184016999</v>
       </c>
       <c r="AE2" t="n">
-        <v>73105.83243569893</v>
+        <v>86417.47999384365</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.860841081529712e-06</v>
+        <v>1.746428228392002e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.190277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>66128.71439273247</v>
+        <v>78169.91699094677</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.91715653610974</v>
+        <v>41.73140828042302</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.67046165815952</v>
+        <v>57.09875386889315</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.50261408945557</v>
+        <v>51.64932893836322</v>
       </c>
       <c r="AD3" t="n">
-        <v>31917.15653610974</v>
+        <v>41731.40828042302</v>
       </c>
       <c r="AE3" t="n">
-        <v>43670.46165815952</v>
+        <v>57098.75386889315</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.366147400208587e-05</v>
+        <v>2.419548559947486e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.580555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>39502.61408945557</v>
+        <v>51649.32893836322</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.47610603934537</v>
+        <v>41.29035778365865</v>
       </c>
       <c r="AB4" t="n">
-        <v>43.06699691071476</v>
+        <v>56.49528912144839</v>
       </c>
       <c r="AC4" t="n">
-        <v>38.95674317053705</v>
+        <v>51.10345801944472</v>
       </c>
       <c r="AD4" t="n">
-        <v>31476.10603934537</v>
+        <v>41290.35778365865</v>
       </c>
       <c r="AE4" t="n">
-        <v>43066.99691071476</v>
+        <v>56495.28912144839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.38685861834949e-05</v>
+        <v>2.456229666261437e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.556944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>38956.74317053705</v>
+        <v>51103.45801944472</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.14097851436784</v>
+        <v>71.05791886217278</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.65578415293001</v>
+        <v>97.22457944132053</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.67179352502458</v>
+        <v>87.94560203501922</v>
       </c>
       <c r="AD2" t="n">
-        <v>61140.97851436785</v>
+        <v>71057.91886217278</v>
       </c>
       <c r="AE2" t="n">
-        <v>83655.78415293001</v>
+        <v>97224.57944132053</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.648996851924045e-06</v>
+        <v>1.508309528623193e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.445833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75671.79352502458</v>
+        <v>87945.60203501923</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.10423073933249</v>
+        <v>45.10642243316037</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.03115718677832</v>
+        <v>61.71659712794406</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.44713095711057</v>
+        <v>55.82645171785394</v>
       </c>
       <c r="AD3" t="n">
-        <v>35104.2307393325</v>
+        <v>45106.42243316037</v>
       </c>
       <c r="AE3" t="n">
-        <v>48031.15718677831</v>
+        <v>61716.59712794406</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.256024900847309e-05</v>
+        <v>2.190397751982712e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.684722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>43447.13095711057</v>
+        <v>55826.45171785393</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.30585252711003</v>
+        <v>42.30804422093748</v>
       </c>
       <c r="AB4" t="n">
-        <v>44.20229266110042</v>
+        <v>57.88773260224895</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.98368788790687</v>
+        <v>52.36300864864484</v>
       </c>
       <c r="AD4" t="n">
-        <v>32305.85252711004</v>
+        <v>42308.04422093747</v>
       </c>
       <c r="AE4" t="n">
-        <v>44202.29266110042</v>
+        <v>57887.73260224895</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.364725808949118e-05</v>
+        <v>2.379962644035458e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>39983.68788790687</v>
+        <v>52363.00864864484</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.12481296899315</v>
+        <v>102.4623278013934</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.0492333640315</v>
+        <v>140.1934772166819</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.0192714430117</v>
+        <v>126.8136085139405</v>
       </c>
       <c r="AD2" t="n">
-        <v>92124.81296899315</v>
+        <v>102462.3278013934</v>
       </c>
       <c r="AE2" t="n">
-        <v>126049.2333640315</v>
+        <v>140193.4772166818</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.720066870697298e-06</v>
+        <v>1.142366829848816e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.038888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>114019.2714430117</v>
+        <v>126813.6085139405</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.71696593636638</v>
+        <v>52.05439126021901</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.07899321660369</v>
+        <v>71.22311459987226</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.63145421499397</v>
+        <v>64.42568050474542</v>
       </c>
       <c r="AD3" t="n">
-        <v>41716.96593636638</v>
+        <v>52054.391260219</v>
       </c>
       <c r="AE3" t="n">
-        <v>57078.99321660369</v>
+        <v>71223.11459987226</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078131124880006e-05</v>
+        <v>1.83275145766922e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.894444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>51631.45421499397</v>
+        <v>64425.68050474541</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.47658663697931</v>
+        <v>45.81401196083096</v>
       </c>
       <c r="AB4" t="n">
-        <v>48.54063095311906</v>
+        <v>62.68475233634928</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.90798126224421</v>
+        <v>56.70220755198363</v>
       </c>
       <c r="AD4" t="n">
-        <v>35476.58663697931</v>
+        <v>45814.01196083096</v>
       </c>
       <c r="AE4" t="n">
-        <v>48540.63095311906</v>
+        <v>62684.75233634928</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.272737932396162e-05</v>
+        <v>2.1635701326122e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.604166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>43907.9812622442</v>
+        <v>56702.20755198364</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.00539704857935</v>
+        <v>44.34282237243076</v>
       </c>
       <c r="AB5" t="n">
-        <v>46.52768445397604</v>
+        <v>60.67180583719721</v>
       </c>
       <c r="AC5" t="n">
-        <v>42.08714755178524</v>
+        <v>54.88137384152184</v>
       </c>
       <c r="AD5" t="n">
-        <v>34005.39704857935</v>
+        <v>44342.82237243076</v>
       </c>
       <c r="AE5" t="n">
-        <v>46527.68445397604</v>
+        <v>60671.80583719721</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319632379212621e-05</v>
+        <v>2.243287584206061e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.547222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>42087.14755178525</v>
+        <v>54881.37384152184</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.68947156203231</v>
+        <v>47.29761792318894</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.56839773315475</v>
+        <v>64.71468746612214</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.64678223029966</v>
+        <v>58.53840852200348</v>
       </c>
       <c r="AD2" t="n">
-        <v>37689.47156203231</v>
+        <v>47297.61792318895</v>
       </c>
       <c r="AE2" t="n">
-        <v>51568.39773315475</v>
+        <v>64714.68746612214</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117390289585046e-05</v>
+        <v>2.01491911129568e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.977777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>46646.78223029966</v>
+        <v>58538.40852200348</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>30.52142248860948</v>
+        <v>40.12956884976183</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.7607567589385</v>
+        <v>54.90704649170494</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.77516874552285</v>
+        <v>49.66679503716672</v>
       </c>
       <c r="AD3" t="n">
-        <v>30521.42248860948</v>
+        <v>40129.56884976183</v>
       </c>
       <c r="AE3" t="n">
-        <v>41760.7567589385</v>
+        <v>54907.04649170494</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408231846494324e-05</v>
+        <v>2.539375263132401e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.569444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>37775.16874552285</v>
+        <v>49666.79503716672</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.3499830385468</v>
+        <v>39.60170353802147</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.52618573998913</v>
+        <v>54.18479788441128</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.56298485539883</v>
+        <v>49.01347682326872</v>
       </c>
       <c r="AD2" t="n">
-        <v>30349.9830385468</v>
+        <v>39601.70353802147</v>
       </c>
       <c r="AE2" t="n">
-        <v>41526.18573998913</v>
+        <v>54184.79788441128</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361416489502882e-05</v>
+        <v>2.539968002518264e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.690277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>37562.98485539883</v>
+        <v>49013.47682326872</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.38306031374199</v>
+        <v>38.63478081321666</v>
       </c>
       <c r="AB3" t="n">
-        <v>40.2031994102976</v>
+        <v>52.86181155471974</v>
       </c>
       <c r="AC3" t="n">
-        <v>36.36626248418615</v>
+        <v>47.81675445205605</v>
       </c>
       <c r="AD3" t="n">
-        <v>29383.06031374199</v>
+        <v>38634.78081321666</v>
       </c>
       <c r="AE3" t="n">
-        <v>40203.1994102976</v>
+        <v>52861.81155471974</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.416533358359986e-05</v>
+        <v>2.642798462098756e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>36366.26248418615</v>
+        <v>47816.75445205605</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.59206559664425</v>
+        <v>37.55888824313543</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.12092554214566</v>
+        <v>51.38972787531145</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.38727931502648</v>
+        <v>46.48516437292367</v>
       </c>
       <c r="AD2" t="n">
-        <v>28592.06559664425</v>
+        <v>37558.88824313543</v>
       </c>
       <c r="AE2" t="n">
-        <v>39120.92554214565</v>
+        <v>51389.72787531145</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.39748863494727e-05</v>
+        <v>2.687422468923983e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.704166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>35387.27931502648</v>
+        <v>46485.16437292367</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.35716101592151</v>
+        <v>44.67397642000602</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.74547166658179</v>
+        <v>61.12490541457494</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.99783366902219</v>
+        <v>55.29123023116404</v>
       </c>
       <c r="AD2" t="n">
-        <v>36357.16101592151</v>
+        <v>44673.97642000602</v>
       </c>
       <c r="AE2" t="n">
-        <v>49745.47166658178</v>
+        <v>61124.90541457494</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256198704411424e-05</v>
+        <v>2.591034595215758e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.034722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>44997.83366902218</v>
+        <v>55291.23023116405</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.02475189568706</v>
+        <v>66.84972651985373</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.0237812981517</v>
+        <v>91.46674502621906</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.57730111813889</v>
+        <v>82.73728725532185</v>
       </c>
       <c r="AD2" t="n">
-        <v>57024.75189568706</v>
+        <v>66849.72651985374</v>
       </c>
       <c r="AE2" t="n">
-        <v>78023.78129815171</v>
+        <v>91466.74502621905</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.246493978159038e-06</v>
+        <v>1.624572516600471e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.311111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>70577.30111813889</v>
+        <v>82737.28725532185</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.44016026417053</v>
+        <v>43.3503862343599</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.75430254906465</v>
+        <v>59.31391092989698</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.38757613042797</v>
+        <v>53.65307451835644</v>
       </c>
       <c r="AD3" t="n">
-        <v>33440.16026417053</v>
+        <v>43350.3862343599</v>
       </c>
       <c r="AE3" t="n">
-        <v>45754.30254906465</v>
+        <v>59313.91092989699</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312570386422509e-05</v>
+        <v>2.306134390962119e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.627777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>41387.57613042797</v>
+        <v>53653.07451835644</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.53905026575952</v>
+        <v>41.44927623594522</v>
       </c>
       <c r="AB4" t="n">
-        <v>43.15311997819748</v>
+        <v>56.71272835885313</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.03464677333396</v>
+        <v>51.30014516121008</v>
       </c>
       <c r="AD4" t="n">
-        <v>31539.05026575952</v>
+        <v>41449.27623594522</v>
       </c>
       <c r="AE4" t="n">
-        <v>43153.11997819748</v>
+        <v>56712.72835885314</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.396906388110376e-05</v>
+        <v>2.45430941906002e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.530555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>39034.64677333396</v>
+        <v>51300.14516121008</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.64192483628652</v>
+        <v>96.07239752654574</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4966186471706</v>
+        <v>131.4504927108117</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.61904662192727</v>
+        <v>118.905042178452</v>
       </c>
       <c r="AD2" t="n">
-        <v>75641.92483628652</v>
+        <v>96072.39752654574</v>
       </c>
       <c r="AE2" t="n">
-        <v>103496.6186471706</v>
+        <v>131450.4927108117</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.16340251751256e-06</v>
+        <v>1.224861999820984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>93619.04662192726</v>
+        <v>118905.042178452</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.79198500487565</v>
+        <v>51.04989177729434</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.81339349886554</v>
+        <v>69.84871409194587</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.48664155803263</v>
+        <v>63.18245085231185</v>
       </c>
       <c r="AD3" t="n">
-        <v>40791.98500487565</v>
+        <v>51049.89177729434</v>
       </c>
       <c r="AE3" t="n">
-        <v>55813.39349886554</v>
+        <v>69848.71409194586</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.098323145558506e-05</v>
+        <v>1.878010179142647e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>50486.64155803263</v>
+        <v>63182.45085231184</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.23377503596971</v>
+        <v>45.49168180838753</v>
       </c>
       <c r="AB4" t="n">
-        <v>48.20840540852753</v>
+        <v>62.24372600157367</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.60746285734602</v>
+        <v>56.30327215161452</v>
       </c>
       <c r="AD4" t="n">
-        <v>35233.77503596972</v>
+        <v>45491.68180838753</v>
       </c>
       <c r="AE4" t="n">
-        <v>48208.40540852753</v>
+        <v>62243.72600157367</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.270216930509498e-05</v>
+        <v>2.171929395153673e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.620833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>43607.46285734602</v>
+        <v>56303.27215161452</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>33.68800071178074</v>
+        <v>43.94590748419831</v>
       </c>
       <c r="AB5" t="n">
-        <v>46.09340878343217</v>
+        <v>60.1287293764688</v>
       </c>
       <c r="AC5" t="n">
-        <v>41.69431854172706</v>
+        <v>54.39012783599259</v>
       </c>
       <c r="AD5" t="n">
-        <v>33688.00071178074</v>
+        <v>43945.90748419831</v>
       </c>
       <c r="AE5" t="n">
-        <v>46093.40878343217</v>
+        <v>60128.72937646881</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.325982696506278e-05</v>
+        <v>2.267282640337617e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.552777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>41694.31854172706</v>
+        <v>54390.12783599259</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.47734499223779</v>
+        <v>44.53002211296695</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.90991268511975</v>
+        <v>60.92794078086838</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.1465806675458</v>
+        <v>55.11306362565676</v>
       </c>
       <c r="AD2" t="n">
-        <v>36477.34499223779</v>
+        <v>44530.02211296695</v>
       </c>
       <c r="AE2" t="n">
-        <v>49909.91268511975</v>
+        <v>60927.94078086838</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.098060904140646e-05</v>
+        <v>2.353650273951908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.409722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>45146.5806675458</v>
+        <v>55113.06362565677</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.22687511519026</v>
+        <v>41.60511909026806</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.0942322818748</v>
+        <v>56.92595942743811</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.88594063961053</v>
+        <v>51.49302575588163</v>
       </c>
       <c r="AD2" t="n">
-        <v>32226.87511519026</v>
+        <v>41605.11909026806</v>
       </c>
       <c r="AE2" t="n">
-        <v>44094.2322818748</v>
+        <v>56925.95942743811</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292272529372873e-05</v>
+        <v>2.380924952337756e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.755555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>39885.94063961053</v>
+        <v>51493.02575588162</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.80598820046559</v>
+        <v>39.18423217554339</v>
       </c>
       <c r="AB3" t="n">
-        <v>40.78186800317156</v>
+        <v>53.61359514873487</v>
       </c>
       <c r="AC3" t="n">
-        <v>36.8897037587244</v>
+        <v>48.4967888749955</v>
       </c>
       <c r="AD3" t="n">
-        <v>29805.98820046559</v>
+        <v>39184.23217554339</v>
       </c>
       <c r="AE3" t="n">
-        <v>40781.86800317156</v>
+        <v>53613.59514873486</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415253567076887e-05</v>
+        <v>2.607509217404485e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.602777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>36889.7037587244</v>
+        <v>48496.78887499549</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.55928443201096</v>
+        <v>60.18779732689264</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.17744347806099</v>
+        <v>82.35159960084093</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.5752453636817</v>
+        <v>74.49207851615196</v>
       </c>
       <c r="AD2" t="n">
-        <v>50559.28443201097</v>
+        <v>60187.79732689264</v>
       </c>
       <c r="AE2" t="n">
-        <v>69177.44347806099</v>
+        <v>82351.59960084093</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042952182495218e-05</v>
+        <v>1.863157961170707e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.093055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>62575.2453636817</v>
+        <v>74492.07851615196</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.14864497110181</v>
+        <v>40.86240921200254</v>
       </c>
       <c r="AB3" t="n">
-        <v>42.61895023058336</v>
+        <v>55.90975100595281</v>
       </c>
       <c r="AC3" t="n">
-        <v>38.55145743671859</v>
+        <v>50.57380283988238</v>
       </c>
       <c r="AD3" t="n">
-        <v>31148.64497110181</v>
+        <v>40862.40921200254</v>
       </c>
       <c r="AE3" t="n">
-        <v>42618.95023058336</v>
+        <v>55909.75100595281</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.388417515134621e-05</v>
+        <v>2.480306566465027e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.572222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>38551.45743671859</v>
+        <v>50573.80283988238</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.14649547515702</v>
+        <v>40.86025971605775</v>
       </c>
       <c r="AB4" t="n">
-        <v>42.61600919540264</v>
+        <v>55.9068099707721</v>
       </c>
       <c r="AC4" t="n">
-        <v>38.54879708980775</v>
+        <v>50.57114249297153</v>
       </c>
       <c r="AD4" t="n">
-        <v>31146.49547515703</v>
+        <v>40860.25971605775</v>
       </c>
       <c r="AE4" t="n">
-        <v>42616.00919540264</v>
+        <v>55906.8099707721</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.391970747063648e-05</v>
+        <v>2.486654155997476e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.569444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>38548.79708980775</v>
+        <v>50571.14249297153</v>
       </c>
     </row>
   </sheetData>
